--- a/DMSNewVSale_2025-10-10_16-37.xlsx
+++ b/DMSNewVSale_2025-10-10_16-37.xlsx
@@ -195,6 +195,15 @@
   </si>
   <si>
     <t>52.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRISOLINE  EYE/NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
   </si>
   <si>
     <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
@@ -1424,7 +1433,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1434,14 +1443,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1450,31 +1459,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1483,20 +1492,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1507,7 +1516,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1523,7 +1532,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1556,7 +1565,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1566,7 +1575,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -1589,24 +1598,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1622,24 +1631,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1648,31 +1657,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1681,20 +1690,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1705,7 +1714,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1721,21 +1730,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>34</v>
@@ -1747,20 +1756,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1768,10 +1777,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>99</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1793,18 +1802,18 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>17</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1813,31 +1822,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1846,31 +1855,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1879,68 +1888,101 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>110</v>
       </c>
-      <c t="s" r="Q34" s="12">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" ht="25.5" customHeight="1">
-      <c r="N35" s="13">
-        <v>1358.96</v>
-      </c>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
         <v>111</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>70</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>112</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
         <v>113</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c t="s" r="Q35" s="12">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" ht="26.25" customHeight="1">
+      <c r="N36" s="13">
+        <v>1381.96</v>
+      </c>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>114</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>115</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>116</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2089,10 +2131,15 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
